--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="完成度" sheetId="2" r:id="rId2"/>
+    <sheet name="完成度" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>语文</t>
   </si>
@@ -131,21 +130,145 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -421,106 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,6 +573,7 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -554,8 +582,11 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <f>C5/B5</f>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5/B5*100</f>
         <v>0</v>
       </c>
     </row>
@@ -566,8 +597,11 @@
       <c r="B6">
         <v>43</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D23" si="0">C6/B6</f>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6/B6*100</f>
         <v>0</v>
       </c>
     </row>
@@ -578,19 +612,22 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D6:D23" si="0">C7/B7*100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="2"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -599,7 +636,10 @@
       <c r="B10">
         <v>84</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -611,19 +651,22 @@
       <c r="B11">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -632,7 +675,10 @@
       <c r="B14">
         <v>60</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -644,7 +690,10 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -656,9 +705,12 @@
       <c r="B16">
         <v>78</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.102564102564102</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -668,19 +720,22 @@
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D18" s="2"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -689,19 +744,22 @@
       <c r="B20">
         <v>74</v>
       </c>
-      <c r="D20" s="2">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="2"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
@@ -710,13 +768,37 @@
       <c r="B23">
         <v>86</v>
       </c>
-      <c r="D23" s="2">
+      <c r="C23">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51.162790697674424</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+      <formula>0</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+      <formula>30</formula>
+      <formula>60</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+      <formula>85</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ren_King\Documents\GitHub\wvh\"/>
@@ -12,9 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="完成度" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="工具栏" guid="{96F10598-2007-4E46-A10C-36247FC07E8F}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="784" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,19 +74,19 @@
     <t>1.《暑假课堂》</t>
   </si>
   <si>
-    <t>作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,132 +144,61 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="5">
     <dxf>
       <font>
-        <b/>
-        <i/>
-        <strike/>
-        <color rgb="FF00B050"/>
+        <color auto="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
+        <color auto="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i/>
         <strike/>
-        <color rgb="FF00B050"/>
+        <color auto="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,6 +211,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="宋体"/>
+                  <a:ea typeface="宋体"/>
+                </a:rPr>
+                <a:t>按钮 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,11 +550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,27 +563,26 @@
     <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -590,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -601,11 +608,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/B6*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <f t="shared" ref="D6:D7" si="0">C6/B6*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -616,20 +623,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D6:D23" si="0">C7/B7*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -640,11 +643,11 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <f t="shared" ref="D10:D23" si="1">C10/B10*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -655,20 +658,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -676,14 +678,14 @@
         <v>60</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -709,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.102564102564102</v>
       </c>
     </row>
@@ -724,18 +726,14 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D18" s="1"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -748,18 +746,14 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="1"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
@@ -772,34 +766,64 @@
         <v>44</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.162790697674424</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
-      <formula>0</formula>
-      <formula>30</formula>
+  <conditionalFormatting sqref="D1 D5:D7 D10:D11 D14:D17 D20 D23">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>85</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>30</formula>
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
-      <formula>60</formula>
-      <formula>85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
-      <formula>85</formula>
-      <formula>99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+      <formula>0</formula>
+      <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!按钮1_Click">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>676275</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>